--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd34-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd34-Selp.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H2">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I2">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J2">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N2">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O2">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P2">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q2">
-        <v>2728.905015211999</v>
+        <v>5791.862717998484</v>
       </c>
       <c r="R2">
-        <v>24560.14513690798</v>
+        <v>52126.76446198636</v>
       </c>
       <c r="S2">
-        <v>0.4170131704177163</v>
+        <v>0.4933869297751836</v>
       </c>
       <c r="T2">
-        <v>0.4170131704177163</v>
+        <v>0.4933869297751836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H3">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I3">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J3">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N3">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O3">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P3">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q3">
-        <v>40.88199766467111</v>
+        <v>146.6824214279733</v>
       </c>
       <c r="R3">
-        <v>367.93797898204</v>
+        <v>1320.14179285176</v>
       </c>
       <c r="S3">
-        <v>0.006247315814995397</v>
+        <v>0.01249532198604095</v>
       </c>
       <c r="T3">
-        <v>0.006247315814995397</v>
+        <v>0.01249532198604095</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H4">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I4">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J4">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N4">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O4">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P4">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q4">
-        <v>9.300357148227112</v>
+        <v>34.814904838848</v>
       </c>
       <c r="R4">
-        <v>83.70321433404399</v>
+        <v>313.334143549632</v>
       </c>
       <c r="S4">
-        <v>0.001421218913366232</v>
+        <v>0.002965750371719859</v>
       </c>
       <c r="T4">
-        <v>0.001421218913366232</v>
+        <v>0.002965750371719859</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H5">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I5">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J5">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N5">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O5">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P5">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q5">
-        <v>1200.044383675149</v>
+        <v>2326.162562393894</v>
       </c>
       <c r="R5">
-        <v>10800.39945307634</v>
+        <v>20935.46306154505</v>
       </c>
       <c r="S5">
-        <v>0.1833828258179486</v>
+        <v>0.1981570110857378</v>
       </c>
       <c r="T5">
-        <v>0.1833828258179486</v>
+        <v>0.1981570110857378</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H6">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I6">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J6">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N6">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O6">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P6">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q6">
-        <v>16.939123681391</v>
+        <v>13.11208397398489</v>
       </c>
       <c r="R6">
-        <v>152.452113132519</v>
+        <v>118.008755765864</v>
       </c>
       <c r="S6">
-        <v>0.002588524566116463</v>
+        <v>0.001116968956252199</v>
       </c>
       <c r="T6">
-        <v>0.002588524566116463</v>
+        <v>0.001116968956252199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>216.067345</v>
       </c>
       <c r="I7">
-        <v>0.3402243694466038</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J7">
-        <v>0.3402243694466039</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N7">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O7">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P7">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q7">
-        <v>1520.405047796158</v>
+        <v>1959.162946152374</v>
       </c>
       <c r="R7">
-        <v>13683.64543016542</v>
+        <v>17632.46651537137</v>
       </c>
       <c r="S7">
-        <v>0.2323382183572703</v>
+        <v>0.1668936986243803</v>
       </c>
       <c r="T7">
-        <v>0.2323382183572704</v>
+        <v>0.1668936986243803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>216.067345</v>
       </c>
       <c r="I8">
-        <v>0.3402243694466038</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J8">
-        <v>0.3402243694466039</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N8">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O8">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P8">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q8">
-        <v>22.77733936024444</v>
+        <v>49.61698488131667</v>
       </c>
       <c r="R8">
-        <v>204.9960542422</v>
+        <v>446.55286393185</v>
       </c>
       <c r="S8">
-        <v>0.003480681975864913</v>
+        <v>0.004226683715969412</v>
       </c>
       <c r="T8">
-        <v>0.003480681975864915</v>
+        <v>0.004226683715969412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>216.067345</v>
       </c>
       <c r="I9">
-        <v>0.3402243694466038</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J9">
-        <v>0.3402243694466039</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N9">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O9">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P9">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q9">
-        <v>5.181679052824444</v>
+        <v>11.77653457188</v>
       </c>
       <c r="R9">
-        <v>46.63511147542</v>
+        <v>105.98881114692</v>
       </c>
       <c r="S9">
-        <v>0.0007918298357253462</v>
+        <v>0.001003198542285045</v>
       </c>
       <c r="T9">
-        <v>0.0007918298357253465</v>
+        <v>0.001003198542285045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>216.067345</v>
       </c>
       <c r="I10">
-        <v>0.3402243694466038</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J10">
-        <v>0.3402243694466039</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N10">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O10">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P10">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q10">
-        <v>668.6028016176239</v>
+        <v>786.8507457552226</v>
       </c>
       <c r="R10">
-        <v>6017.425214558614</v>
+        <v>7081.656711797003</v>
       </c>
       <c r="S10">
-        <v>0.102171446971771</v>
+        <v>0.06702884590704561</v>
       </c>
       <c r="T10">
-        <v>0.1021714469717711</v>
+        <v>0.06702884590704562</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>216.067345</v>
       </c>
       <c r="I11">
-        <v>0.3402243694466038</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J11">
-        <v>0.3402243694466039</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N11">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O11">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P11">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q11">
-        <v>9.437605562254998</v>
+        <v>4.43531042074611</v>
       </c>
       <c r="R11">
-        <v>84.938450060295</v>
+        <v>39.917793786715</v>
       </c>
       <c r="S11">
-        <v>0.00144219230597225</v>
+        <v>0.0003778273584233068</v>
       </c>
       <c r="T11">
-        <v>0.00144219230597225</v>
+        <v>0.0003778273584233068</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2262363333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H12">
-        <v>0.678709</v>
+        <v>1.533025</v>
       </c>
       <c r="I12">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J12">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N12">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O12">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P12">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q12">
-        <v>4.775884063298334</v>
+        <v>13.90050761962778</v>
       </c>
       <c r="R12">
-        <v>42.982956569685</v>
+        <v>125.10456857665</v>
       </c>
       <c r="S12">
-        <v>0.000729818936049983</v>
+        <v>0.001184131791565452</v>
       </c>
       <c r="T12">
-        <v>0.000729818936049983</v>
+        <v>0.001184131791565452</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2262363333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H13">
-        <v>0.678709</v>
+        <v>1.533025</v>
       </c>
       <c r="I13">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J13">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N13">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O13">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P13">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q13">
-        <v>0.07154799453777778</v>
+        <v>0.3520387509166667</v>
       </c>
       <c r="R13">
-        <v>0.64393195084</v>
+        <v>3.168348758250001</v>
       </c>
       <c r="S13">
-        <v>1.093349012622569E-05</v>
+        <v>2.99888527980663E-05</v>
       </c>
       <c r="T13">
-        <v>1.093349012622569E-05</v>
+        <v>2.998885279806631E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2262363333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H14">
-        <v>0.678709</v>
+        <v>1.533025</v>
       </c>
       <c r="I14">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J14">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N14">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O14">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P14">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q14">
-        <v>0.01627664841377778</v>
+        <v>0.0835559946</v>
       </c>
       <c r="R14">
-        <v>0.146489835724</v>
+        <v>0.7520039514</v>
       </c>
       <c r="S14">
-        <v>2.487289488262625E-06</v>
+        <v>7.11781988752873E-06</v>
       </c>
       <c r="T14">
-        <v>2.487289488262625E-06</v>
+        <v>7.11781988752873E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2262363333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H15">
-        <v>0.678709</v>
+        <v>1.533025</v>
       </c>
       <c r="I15">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J15">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N15">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O15">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P15">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q15">
-        <v>2.100209723422556</v>
+        <v>5.582805048636111</v>
       </c>
       <c r="R15">
-        <v>18.901887510803</v>
+        <v>50.245245437725</v>
       </c>
       <c r="S15">
-        <v>0.0003209401244911106</v>
+        <v>0.0004755780957860551</v>
       </c>
       <c r="T15">
-        <v>0.0003209401244911106</v>
+        <v>0.0004755780957860551</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2262363333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H16">
-        <v>0.678709</v>
+        <v>1.533025</v>
       </c>
       <c r="I16">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J16">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N16">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O16">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P16">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q16">
-        <v>0.029645330411</v>
+        <v>0.03146908551944445</v>
       </c>
       <c r="R16">
-        <v>0.266807973699</v>
+        <v>0.283221769675</v>
       </c>
       <c r="S16">
-        <v>4.530202830020982E-06</v>
+        <v>2.680732649104796E-06</v>
       </c>
       <c r="T16">
-        <v>4.530202830020983E-06</v>
+        <v>2.680732649104796E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.359407333333333</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H17">
-        <v>25.078222</v>
+        <v>38.893229</v>
       </c>
       <c r="I17">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J17">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N17">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O17">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P17">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q17">
-        <v>176.4683845148033</v>
+        <v>352.6593669812482</v>
       </c>
       <c r="R17">
-        <v>1588.21546063323</v>
+        <v>3173.934302831234</v>
       </c>
       <c r="S17">
-        <v>0.02696672844778141</v>
+        <v>0.0300417207387586</v>
       </c>
       <c r="T17">
-        <v>0.02696672844778141</v>
+        <v>0.0300417207387586</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.359407333333333</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H18">
-        <v>25.078222</v>
+        <v>38.893229</v>
       </c>
       <c r="I18">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J18">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N18">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O18">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P18">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q18">
-        <v>2.643690433857778</v>
+        <v>8.931311463463334</v>
       </c>
       <c r="R18">
-        <v>23.79321390472</v>
+        <v>80.38180317117001</v>
       </c>
       <c r="S18">
-        <v>0.000403991243110517</v>
+        <v>0.0007608247219207015</v>
       </c>
       <c r="T18">
-        <v>0.000403991243110517</v>
+        <v>0.0007608247219207016</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.359407333333333</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H19">
-        <v>25.078222</v>
+        <v>38.893229</v>
       </c>
       <c r="I19">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J19">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N19">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O19">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P19">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q19">
-        <v>0.6014203470657777</v>
+        <v>2.119836553416</v>
       </c>
       <c r="R19">
-        <v>5.412783123592</v>
+        <v>19.078528980744</v>
       </c>
       <c r="S19">
-        <v>9.190506972047888E-05</v>
+        <v>0.0001805808769370422</v>
       </c>
       <c r="T19">
-        <v>9.190506972047891E-05</v>
+        <v>0.0001805808769370422</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.359407333333333</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H20">
-        <v>25.078222</v>
+        <v>38.893229</v>
       </c>
       <c r="I20">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J20">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N20">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O20">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P20">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q20">
-        <v>77.60251549714157</v>
+        <v>141.6371652249379</v>
       </c>
       <c r="R20">
-        <v>698.422639474274</v>
+        <v>1274.734487024441</v>
       </c>
       <c r="S20">
-        <v>0.01185870187472939</v>
+        <v>0.01206553564801029</v>
       </c>
       <c r="T20">
-        <v>0.01185870187472939</v>
+        <v>0.01206553564801029</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.359407333333333</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H21">
-        <v>25.078222</v>
+        <v>38.893229</v>
       </c>
       <c r="I21">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J21">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N21">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O21">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P21">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q21">
-        <v>1.095391658738</v>
+        <v>0.7983785975625555</v>
       </c>
       <c r="R21">
-        <v>9.858524928642</v>
+        <v>7.185407378062999</v>
       </c>
       <c r="S21">
-        <v>0.0001673904902930335</v>
+        <v>6.801086010300514E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001673904902930335</v>
+        <v>6.801086010300516E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.330635666666667</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H22">
-        <v>3.991907</v>
+        <v>5.620598</v>
       </c>
       <c r="I22">
-        <v>0.006285744113551653</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J22">
-        <v>0.006285744113551654</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N22">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O22">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P22">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q22">
-        <v>28.08992517186167</v>
+        <v>50.96405167943423</v>
       </c>
       <c r="R22">
-        <v>252.809326546755</v>
+        <v>458.676465114908</v>
       </c>
       <c r="S22">
-        <v>0.0042925161144916</v>
+        <v>0.004341435253442832</v>
       </c>
       <c r="T22">
-        <v>0.004292516114491601</v>
+        <v>0.004341435253442832</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.330635666666667</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H23">
-        <v>3.991907</v>
+        <v>5.620598</v>
       </c>
       <c r="I23">
-        <v>0.006285744113551653</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J23">
-        <v>0.006285744113551654</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N23">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O23">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P23">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q23">
-        <v>0.4208179650355556</v>
+        <v>1.290695389393334</v>
       </c>
       <c r="R23">
-        <v>3.787361685320001</v>
+        <v>11.61625850454</v>
       </c>
       <c r="S23">
-        <v>6.430661118286515E-05</v>
+        <v>0.0001099494698775988</v>
       </c>
       <c r="T23">
-        <v>6.430661118286516E-05</v>
+        <v>0.0001099494698775988</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.330635666666667</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H24">
-        <v>3.991907</v>
+        <v>5.620598</v>
       </c>
       <c r="I24">
-        <v>0.006285744113551653</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J24">
-        <v>0.006285744113551654</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N24">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O24">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P24">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q24">
-        <v>0.09573302658355556</v>
+        <v>0.306345073392</v>
       </c>
       <c r="R24">
-        <v>0.861597239252</v>
+        <v>2.757105660528</v>
       </c>
       <c r="S24">
-        <v>1.462928636458628E-05</v>
+        <v>2.609638083149603E-05</v>
       </c>
       <c r="T24">
-        <v>1.462928636458629E-05</v>
+        <v>2.609638083149603E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.330635666666667</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H25">
-        <v>3.991907</v>
+        <v>5.620598</v>
       </c>
       <c r="I25">
-        <v>0.006285744113551653</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J25">
-        <v>0.006285744113551654</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N25">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O25">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P25">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q25">
-        <v>12.35263109285211</v>
+        <v>20.46848739632689</v>
       </c>
       <c r="R25">
-        <v>111.173679835669</v>
+        <v>184.216386566942</v>
       </c>
       <c r="S25">
-        <v>0.001887647179478887</v>
+        <v>0.001743633204950284</v>
       </c>
       <c r="T25">
-        <v>0.001887647179478887</v>
+        <v>0.001743633204950284</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.330635666666667</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H26">
-        <v>3.991907</v>
+        <v>5.620598</v>
       </c>
       <c r="I26">
-        <v>0.006285744113551653</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J26">
-        <v>0.006285744113551654</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N26">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O26">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P26">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q26">
-        <v>0.174362505853</v>
+        <v>0.1153765131895556</v>
       </c>
       <c r="R26">
-        <v>1.569262552677</v>
+        <v>1.038388618706</v>
       </c>
       <c r="S26">
-        <v>2.664492203371485E-05</v>
+        <v>9.82848979376926E-06</v>
       </c>
       <c r="T26">
-        <v>2.664492203371486E-05</v>
+        <v>9.82848979376926E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4825293333333332</v>
+        <v>0.3910823333333333</v>
       </c>
       <c r="H27">
-        <v>1.447588</v>
+        <v>1.173247</v>
       </c>
       <c r="I27">
-        <v>0.002279403741081144</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="J27">
-        <v>0.002279403741081145</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>21.110155</v>
+        <v>27.20211533333334</v>
       </c>
       <c r="N27">
-        <v>63.330465</v>
+        <v>81.606346</v>
       </c>
       <c r="O27">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838615</v>
       </c>
       <c r="P27">
-        <v>0.6828970503646842</v>
+        <v>0.6967541499838614</v>
       </c>
       <c r="Q27">
-        <v>10.18626901871333</v>
+        <v>10.63826673616244</v>
       </c>
       <c r="R27">
-        <v>91.67642116841998</v>
+        <v>95.74440062546199</v>
       </c>
       <c r="S27">
-        <v>0.00155659809137454</v>
+        <v>0.0009062338005308406</v>
       </c>
       <c r="T27">
-        <v>0.00155659809137454</v>
+        <v>0.0009062338005308406</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4825293333333332</v>
+        <v>0.3910823333333333</v>
       </c>
       <c r="H28">
-        <v>1.447588</v>
+        <v>1.173247</v>
       </c>
       <c r="I28">
-        <v>0.002279403741081144</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="J28">
-        <v>0.002279403741081145</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.3162533333333333</v>
+        <v>0.68891</v>
       </c>
       <c r="N28">
-        <v>0.94876</v>
+        <v>2.06673</v>
       </c>
       <c r="O28">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="P28">
-        <v>0.01023054868622862</v>
+        <v>0.01764571966494059</v>
       </c>
       <c r="Q28">
-        <v>0.1526015100977777</v>
+        <v>0.2694205302566667</v>
       </c>
       <c r="R28">
-        <v>1.37341359088</v>
+        <v>2.42478477231</v>
       </c>
       <c r="S28">
-        <v>2.33195509487023E-05</v>
+        <v>2.295091833386467E-05</v>
       </c>
       <c r="T28">
-        <v>2.331955094870231E-05</v>
+        <v>2.295091833386468E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4825293333333332</v>
+        <v>0.3910823333333333</v>
       </c>
       <c r="H29">
-        <v>1.447588</v>
+        <v>1.173247</v>
       </c>
       <c r="I29">
-        <v>0.002279403741081144</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="J29">
-        <v>0.002279403741081145</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.07194533333333333</v>
+        <v>0.163512</v>
       </c>
       <c r="N29">
-        <v>0.215836</v>
+        <v>0.490536</v>
       </c>
       <c r="O29">
-        <v>0.002327375422910789</v>
+        <v>0.004188191365858771</v>
       </c>
       <c r="P29">
-        <v>0.00232737542291079</v>
+        <v>0.00418819136585877</v>
       </c>
       <c r="Q29">
-        <v>0.03471573372977777</v>
+        <v>0.06394665448799999</v>
       </c>
       <c r="R29">
-        <v>0.3124416035679999</v>
+        <v>0.5755198903919999</v>
       </c>
       <c r="S29">
-        <v>5.305028245883163E-06</v>
+        <v>5.4473741978007E-06</v>
       </c>
       <c r="T29">
-        <v>5.305028245883165E-06</v>
+        <v>5.4473741978007E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4825293333333332</v>
+        <v>0.3910823333333333</v>
       </c>
       <c r="H30">
-        <v>1.447588</v>
+        <v>1.173247</v>
       </c>
       <c r="I30">
-        <v>0.002279403741081144</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="J30">
-        <v>0.002279403741081145</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.283255666666667</v>
+        <v>10.92507633333333</v>
       </c>
       <c r="N30">
-        <v>27.849767</v>
+        <v>32.775229</v>
       </c>
       <c r="O30">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="P30">
-        <v>0.3003060807724011</v>
+        <v>0.2798345709832591</v>
       </c>
       <c r="Q30">
-        <v>4.479443167999555</v>
+        <v>4.272604344284777</v>
       </c>
       <c r="R30">
-        <v>40.31498851199599</v>
+        <v>38.453439098563</v>
       </c>
       <c r="S30">
-        <v>0.0006845188039820272</v>
+        <v>0.0003639670417290662</v>
       </c>
       <c r="T30">
-        <v>0.0006845188039820274</v>
+        <v>0.0003639670417290663</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4825293333333332</v>
+        <v>0.3910823333333333</v>
       </c>
       <c r="H31">
-        <v>1.447588</v>
+        <v>1.173247</v>
       </c>
       <c r="I31">
-        <v>0.002279403741081144</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="J31">
-        <v>0.002279403741081145</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.131037</v>
+        <v>0.06158233333333333</v>
       </c>
       <c r="N31">
-        <v>0.393111</v>
+        <v>0.184747</v>
       </c>
       <c r="O31">
-        <v>0.004238944753775474</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="P31">
-        <v>0.004238944753775475</v>
+        <v>0.001577368002079991</v>
       </c>
       <c r="Q31">
-        <v>0.06322919625199998</v>
+        <v>0.02408376261211111</v>
       </c>
       <c r="R31">
-        <v>0.5690627662679999</v>
+        <v>0.216753863509</v>
       </c>
       <c r="S31">
-        <v>9.662266529992104E-06</v>
+        <v>2.051604858605864E-06</v>
       </c>
       <c r="T31">
-        <v>9.662266529992109E-06</v>
+        <v>2.051604858605864E-06</v>
       </c>
     </row>
   </sheetData>
